--- a/data/bonitur_pig.xlsx
+++ b/data/bonitur_pig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F27AC15-7FE9-2644-B5CB-0DCB964C8310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE5834E-3DE0-2647-AA5C-AD9999FC7B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="1500" windowWidth="29860" windowHeight="14020" xr2:uid="{72F6B870-AE26-4754-883F-83CB3A5A1E0B}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:E2881"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
